--- a/tests/network_ref.xlsx
+++ b/tests/network_ref.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BN37"/>
+  <dimension ref="A1:BO37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
@@ -545,6 +545,7 @@
     <col width="42" customWidth="1" style="5" min="64" max="64"/>
     <col width="42" customWidth="1" style="5" min="65" max="65"/>
     <col width="42" customWidth="1" style="5" min="66" max="66"/>
+    <col width="42" customWidth="1" style="5" min="67" max="67"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="5">
@@ -610,255 +611,260 @@
       </c>
       <c r="P1" s="6" t="inlineStr">
         <is>
+          <t>[sm] ISSN</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
           <t>[sm] Materias</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>[sm] Es suplemento</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>[sm] Otra edición</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>[sm] Absorbió a</t>
         </is>
       </c>
-      <c r="T1" s="6" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>[sm] Colecciones</t>
         </is>
       </c>
-      <c r="U1" s="6" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>[sm] Existencias</t>
         </is>
       </c>
-      <c r="V1" s="6" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>[sm] Suplementos</t>
         </is>
       </c>
-      <c r="W1" s="6" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>[sm] Enlaces</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>[sm] Frecuencia anterior</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>[sm] Notas</t>
         </is>
       </c>
-      <c r="Z1" s="6" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>[sm] Publicación principal</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>[sm] Bibliografía</t>
         </is>
       </c>
-      <c r="AB1" s="6" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>[sm] Depósito Legal</t>
         </is>
       </c>
-      <c r="AC1" s="6" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>[sm] ISBN</t>
         </is>
       </c>
-      <c r="AD1" s="6" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>[sm] Edición</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>[sm] Referencias</t>
         </is>
       </c>
-      <c r="AF1" s="6" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>[sm] Autores</t>
         </is>
       </c>
-      <c r="AG1" s="6" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>[sm] Contiene</t>
         </is>
       </c>
-      <c r="AH1" s="6" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>[sm] Intérpretes</t>
         </is>
       </c>
-      <c r="AI1" s="6" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>[sm] Signatura</t>
         </is>
       </c>
-      <c r="AJ1" s="6" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>[sm] Museo</t>
         </is>
       </c>
-      <c r="AK1" s="6" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>[sm] Inventario</t>
         </is>
       </c>
-      <c r="AL1" s="6" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>[sm] Clasificación Genérica</t>
         </is>
       </c>
-      <c r="AM1" s="6" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>[sm] Objeto/Documento</t>
         </is>
       </c>
-      <c r="AN1" s="6" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>[sm] Conjunto</t>
         </is>
       </c>
-      <c r="AO1" s="6" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>[sm] Materia/Soporte</t>
         </is>
       </c>
-      <c r="AP1" s="6" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>[sm] Técnica</t>
         </is>
       </c>
-      <c r="AQ1" s="6" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>[sm] Dimensiones</t>
         </is>
       </c>
-      <c r="AR1" s="6" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>[sm] Descripción</t>
         </is>
       </c>
-      <c r="AS1" s="6" t="inlineStr">
+      <c r="AT1" s="6" t="inlineStr">
         <is>
           <t>[sm] Datación</t>
         </is>
       </c>
-      <c r="AT1" s="6" t="inlineStr">
+      <c r="AU1" s="6" t="inlineStr">
         <is>
           <t>[sm] Contexto Cultural/Estilo</t>
         </is>
       </c>
-      <c r="AU1" s="6" t="inlineStr">
+      <c r="AV1" s="6" t="inlineStr">
         <is>
           <t>[sm] Lugar de Producción/Ceca</t>
         </is>
       </c>
-      <c r="AV1" s="6" t="inlineStr">
+      <c r="AW1" s="6" t="inlineStr">
         <is>
           <t>[sm] Uso/función</t>
         </is>
       </c>
-      <c r="AW1" s="6" t="inlineStr">
+      <c r="AX1" s="6" t="inlineStr">
         <is>
           <t>[sm] Lugar de Procedencia</t>
         </is>
       </c>
-      <c r="AX1" s="6" t="inlineStr">
+      <c r="AY1" s="6" t="inlineStr">
         <is>
           <t>[sm] Lugar Específico/Yacimiento</t>
         </is>
       </c>
-      <c r="AY1" s="6" t="inlineStr">
+      <c r="AZ1" s="6" t="inlineStr">
         <is>
           <t>[sm] Clasificación Razonada</t>
         </is>
       </c>
-      <c r="AZ1" s="6" t="inlineStr">
+      <c r="BA1" s="6" t="inlineStr">
         <is>
           <t>[sm] Fecha de Ingreso</t>
         </is>
       </c>
-      <c r="BA1" s="6" t="inlineStr">
+      <c r="BB1" s="6" t="inlineStr">
         <is>
           <t>[sm] Catalogación</t>
         </is>
       </c>
-      <c r="BB1" s="6" t="inlineStr">
+      <c r="BC1" s="6" t="inlineStr">
         <is>
           <t>[sm] [vacío]</t>
         </is>
       </c>
-      <c r="BC1" s="6" t="inlineStr">
+      <c r="BD1" s="6" t="inlineStr">
         <is>
           <t>[sm] Fecha inicial</t>
         </is>
       </c>
-      <c r="BD1" s="6" t="inlineStr">
+      <c r="BE1" s="6" t="inlineStr">
         <is>
           <t>[sm] Fecha final</t>
         </is>
       </c>
-      <c r="BE1" s="6" t="inlineStr">
+      <c r="BF1" s="6" t="inlineStr">
         <is>
           <t>[sm] Condiciones de acceso</t>
         </is>
       </c>
-      <c r="BF1" s="6" t="inlineStr">
+      <c r="BG1" s="6" t="inlineStr">
         <is>
           <t>[sm] Bibliografia</t>
         </is>
       </c>
-      <c r="BG1" s="6" t="inlineStr">
+      <c r="BH1" s="6" t="inlineStr">
         <is>
           <t>[sm] Notas de descripción</t>
         </is>
       </c>
-      <c r="BH1" s="6" t="inlineStr">
+      <c r="BI1" s="6" t="inlineStr">
         <is>
           <t>[sm] Personas</t>
         </is>
       </c>
-      <c r="BI1" s="6" t="inlineStr">
+      <c r="BJ1" s="6" t="inlineStr">
         <is>
           <t>[sm] Lugares</t>
         </is>
       </c>
-      <c r="BJ1" s="6" t="inlineStr">
+      <c r="BK1" s="6" t="inlineStr">
         <is>
           <t>[sm] Instituciones</t>
         </is>
       </c>
-      <c r="BK1" s="6" t="inlineStr">
+      <c r="BL1" s="6" t="inlineStr">
         <is>
           <t>[sm] Entidades</t>
         </is>
       </c>
-      <c r="BL1" s="6" t="inlineStr">
+      <c r="BM1" s="6" t="inlineStr">
         <is>
           <t>[sm] N. área desc. fis.</t>
         </is>
       </c>
-      <c r="BM1" s="6" t="inlineStr">
+      <c r="BN1" s="6" t="inlineStr">
         <is>
           <t>[sm] N. sobre ilustrac.</t>
         </is>
       </c>
-      <c r="BN1" s="6" t="inlineStr">
+      <c r="BO1" s="6" t="inlineStr">
         <is>
           <t>[sm] Otras notas</t>
         </is>
@@ -1105,30 +1111,35 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>1136-0143</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>Información general-Periódicos-Publicaciones periódicas</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Gente Menuda; Los Domingos de A B C; A B C: Doble Diario de la Guerra Civil; Blanco y Negro; ABC cultural; Blanco y Negro mujer; Suplemento Semanal continuado por: XL Semanal / Mujer Hoy / Mujer Hoy Moda / Alfa y omega / XL semanal ABC (Madrid. 2005) / ABC Cultural / Corazón tve / Plan B / La Segunda Guerra Mundial (Madrid. 1989) / La Mujer y la casa (Madrid. 1906)</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>Gente Menuda; Los Domingos de A B C; Blanco y Negro; ABC cultural; Blanco y Negro mujer; Suplemento Semanal continuado por: XL Semanal / A B C: doble diario de la Guerra Civil / Mujer Hoy / Mujer Hoy Moda / Alfa y omega / XL semanal ABC (Madrid. 2005) / ABC Cultural / Corazón tve / Plan B / La Segunda Guerra Mundial (Madrid. 1989) / La Mujer y la casa (Madrid. 1906) / ABC: informática / (Madrid. 1996) ISSN 1136-5684</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>ABC (Madrid. 1950. Ed. especial aérea) / . ISSN 1136-0194 / ABC (Madrid. 1981. Ed. Internacional) / . ISSN 1136-0232</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Ecos (Madrid. 1912) / ISSN 1889-8742</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1903-2021</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Hemeroteca Municipal de Madrid / 1903(n.1en)-2021(n.38718,31dic)</t>
         </is>
@@ -1175,27 +1186,27 @@
           <t>Madrid : [s.n.], 1881-1926 ( Imp. de M. Romero)</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Información general-Periódicos-Publicaciones periódicas</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>1881-1894, (1895), 1896, (1897-1900), 1908-1915, (1916), 1917, (1918), 1919, (1920), 1921, (1922), 1923-1925</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Hemeroteca / 1881,I (n.1,10abr.)-1894,XIV (n.52,30dic.) / 1895,XV (n.1,6en.-n.3,20en.;n.5,3feb.-n.52,28dic.) / 1896,XVI (n.1,4en.-n.52,26dic.) / 1897,XVII (n.1,2en.-n.13,27marzo;n.15,10abr.-n.52,25dic.) / 1898,XVIII (n.1,1en.-n.28,9jul.;n.30,23jul.-n.32,6ag.) / 1899,XIX (n.2,16feb;n.8,30marzo-n.27,12ag.;n.29,26ag.-n.45,16dic.) / 1900,XX (n.2,13en.-n.51,29dic.) / 1908,,XXVIII (n.1,1oct.)-1910,XXX (n.51,29dic.) / 1911,XXXI (n.1,5en.-n.49,28dic.) / 1912,XXXII (n.1,4en.)-1915,XXXV (n.52,30dic.) / 1916,XXXVI (n.1,6en.-n.26,29jun.;n.31,3ag.-n.52,28dic.) / 1917,XXXVII (n.1,4en.-n.48,27dic.) / 1918,XXXVIII (n.34,10oct.-n.44,27dic.) / 1919,XXXIX (n.1,2en.)-1921,XLI (n.53,31dic.) / 1922,XLII (n.1,7en.-n.11,18marzo;n.13,1abr.-n.30,29jul.;n.32,26,ag.-n.37,30sept.;n.39,14oct.-n.44,18nov.;n.46,2dic.-n.50,30dic.) / 1923,XLIII (n.1,6en.)-1925,XLV (n.52,26dic.)</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Tiene suplementos irregulares de sept. de 1883 a sept. de 1891. Dejan de publicarse a partir del 3 de sept. de 1891 / Números extraordinarios de 1884 (mayo, junio, julio y agosto), de 1885 (2,5 y 10 de agosto), de 1892 (28 de abril, 12,19,26 de mayo y 16 de junio) y de 1923 (1 de enero)</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>Biblioteca Digital memoriademadrid</t>
         </is>
@@ -1242,42 +1253,42 @@
           <t>No se publicó: marzo de 1934, 1937, 1940-abr.1957, en.1981-feb.,1988.</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Información general-Revistas-Publicaciones periódicas</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Almanaque "La Tierra Española" (1899); Emilio Castelar(n.extr.30mayo id.); Almanaque(1900); La Coronación deAlfonso XIII(n.extr.24mayo1902); Crónica Gráfica(1905); Modas; Biografía de S.S. Juan XXIII(8nov.1958); Mapa interesante de Madrid(20mayo1961); Méjico (12oct.1968); Alemania(28jun.1969); Album Gráfico de los Reyes Alfonso XIII y V.Eugenia(5jul.1969); Armas de Fuego; Franco muerto(22nov.1975); Juan Carlos, primer año...(18dic.1976); Escuela de Salud; Mundo Hagar'88(1988); La II Guerra Mundial; Gente Menuda; El Encuentro del Siglo: Viaje Hco. a Expo'92(22abr.1990); El Médico responde; Juan Carlos I, quince años Rey(25nov.1990); Cincuenta años de la muerte de Alfonso XIII(3marzo1991); Blanco y Negro, Revista Ilustrada(12mayo1991); Centenario de Blanco y Negro(19mayo1991); Catálogo de Monedas(13dic.1992);</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>1891-1930,(1931),1932-1935,(1936),1938-1939,1957-1961,(1962-1963),1964-1996</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Hemeroteca Municipal de Madrid / En Signatura F29/4-F29A: / 1891,I(n.1, 10 mayo)-1930,XL / 1931,XLI (n.2068,4en.-n.2086,10mayo·n.2088,4jun.-2118,27dic.) / 1932,XLIV-1935,XLV / 1936,XLVI (n.2320,5en.-n.2348,19jul.·supl.n.1,s.f.-supl.,n.35,s.f.) / 1938,XLVIII (n.1(2349),14abr. -1939,XLIX (n.21(2369),feb./marzo) / 1957,XLVII (n.2349,11mayo-n.2382,28dic.) / 1958,LXVIII-1961,LXXI / 1962,LXXII (n.2592,6en.-n.2601,10marzo·n.2603,24marzo-n.2643,29dic.) / En Signatura 3227-3244/4: / 1963,LXXIII (n.2644,5en.-n.2690,23nov.·n.2692,7dic.-n.2695,28dic.) / 1964,LXXIV (n.2696,4en.)- 1980,XC(n.3583,31dic./6en.1981) / 1988,XCVI (n.3586,6marzo)-1996,CV (sept.) / 2ª época / Nueva Etapa: / 1891,I-1923,XL / 1938,XLI-1939,XLII</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Biblioteca Digital memoriademadrid</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Semanal, 1891-1936 / Quincenal, 1938-1939</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Se hallan intercambiadas las portadas de los n.2494 y 2495; mal enc. los n.: 2652,2661,2679,2683,2726,2729,3615 (entre el 3153 y 3154); dupl.: pags. 45-60(n.2089), "Gente Menuda" del n.2297, portadas de los n.3362 y 3825; mutilados los n. 475,648, 663, 716-719, 721-725, 728, 762, 841, 933, 982, 987, 1041,1149,1351,1424, 1426, 1532, 1524, 1703, 1718, 1723, 1725, 1757, 1758, 1765, 1775, 1776, 1809, 1817, 1832, 1843, 1851, 1859, 1942, 1954, 1968, 1970, 1982, 1983, 2015, 2030, 2035, 2040, 2044, 2046, 2049, 2053, 2055, 2065, 2151, 2198, 2247, 2315-2318, 2349, 2364, 2365, 2367-2375, 2399, 2513, 2536, 2627, 2757, 2761, 2839, 2945, 3053, 3299, 3309. / Índices.</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>ABC</t>
         </is>
@@ -1314,22 +1325,22 @@
           <t>Madrid : Fundación Universitaria Española, 2017.</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Calderón de la Barca, Pedro (1600-1681) / Teatro español-Representaciones. / Teatro español-Catálogos.</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Bibliografía: p. 607-667.</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>M 27937-2017. Oficina Depósito Legal Madrid</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>978-84-7392-882-3</t>
         </is>
@@ -1366,12 +1377,12 @@
           <t>Madrid : Compañía Ibero-americana de publicaciones, [1927?]</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>En la portada: "Tercera edición". -- Contiene una lámina con el retrato del autor.</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>3ª ed.</t>
         </is>
@@ -1408,17 +1419,17 @@
           <t>Siglo XVIII.</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Letra del siglo XVIII.</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>CEREZO RUBIO Y GONZALEZ CAÑAL, Catálogo de Teatro de la Biblioteca Histórica de Madrid, nº. 111.2</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>Mesonero Romanos, Ramón de (1803-1882), ant. pos.</t>
         </is>
@@ -1450,32 +1461,32 @@
           <t>Estados Unidos : Immortal, 2008</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Ballet</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>A crazy day, ballet basado en temas de la comedia de Pierre Beaumarchais, de la opera "El barbero de Sevilla"</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>Rossini, Gioacchino (1792-1868) / Eifman, Boris / Fokine, Michel (1880-1942)</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Pages of the Russian Ballet incluye : Dances from Mikhail Glinka´s opera. "Rusian and Lyudmila": "The fairy garden of Naina" -- Dances from Alexander Borodin´s "Prince Igor": "Polovtsian dances"</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>Valery Mikhailovsky, Valentina Morozova, Sergei Fokin, Valentina Ganibalova, Kirill Matveev, Ilia Lyantsev, M. Kozlov, R. Bachurin; Leningrad TV and Radio Symphony Orchestra ; conduced by Timur Kogan, Victor Okountsov, dir.; choreography by Boris Eifman (A crazy day). Gabriella Komleva, The Kirov Ballet ( Dances from Mikhail Glinka's opera. Rusian and Ludmila : Fairy Garden of Naina ). Anneline Kashirina, Yury Gumba, Kirov Orchestra conducted by Victor Fedotov, Eugenia Popova, dir.; choreography by Mikhail Fokin( Dances from Alexander Borodin's. Prince Iglor : Polovtsian dances ).</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>M-BMM / M-BMM BMDE Déposito DVD 1450 1300024069 90.648 / M-BMM BMAV Almacén Audiovisuales DVD 1522 1300026802 94935 / M-BMM BMAV Almacén Audiovisuales DVD 1523 1300026803 94936</t>
         </is>
@@ -1512,27 +1523,27 @@
           <t>Madrid, [etc.] : Daimon, D.L. 1986.</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Rossini, Gioacchino (1792-1868) / Compositores-Italia-Biografías</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Glosario.</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Cronología.Bibliografia : p. 119 . Discografía : p. 120-125.</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>84-231-2852-0</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>M-BMM BMDE Depósito T 1596 0100066496 15.792</t>
         </is>
@@ -1554,97 +1565,97 @@
           <t>http://ceres.mcu.es/pages/Main?idt=134248&amp;inventary=DE2016/1/24&amp;table=FMUS&amp;museum=MOM</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>CIRUJANO GUTIÉRREZ, Concepción. Restauración y estudio geométrico y compositivo del claustro gótico del monasterio de los Jerónimos de Madrid. / Bienes culturales: revista del Instituto del Patrimonio Histórico Español. / Madrid (m): Ministerio de Educación Cultura y Deporte: Subdirección General de Documentación y Publicaciones, 2006, págs. 35-52. p 36/f 2; p 42/f 17; p 45/f 25.</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>Museo de San Isidro. Los orígenes de Madrid</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>DE2016/1/24</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>Cantería</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>Basa</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>Claustro gótico del Monasterio de Los Jerónimos de Madrid</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>Yeso [Piedra de yeso con cemento carbonatado]</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>Cincelado</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>Altura = 40 cm; Anchura = 75 cm; Espesor = 53 cm</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>Fragmento de basa moldurada. Planta ochavada. Frentes lisos, un baquetón cuadrado en cada lateral, y lados alternos cóncavos con peqeñas basas en el arranque de cada uno de los cuatro baquetones existentes en ellos. Dos molduras perimetrales lineales por debajo de las basas de los baquetones.</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>1462-1464 / 1503-1505</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>Gótico</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>Madrid (m) (Area Metropolitana de Madrid (comarca), Madrid &lt;(provincia)&gt;)</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>Arquitectónico</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado, Retiro (distrito)(Madrid (m), Area Metropolitana de Madrid (comarca)) / Excavación arqueológica,</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>El estudio morfológico de esta pieza la relaciona con los tambores de fuste de columna y las dovelas clasificadas como de tipo B, al coincidir plenamente la posición de sus baquetones con los labrados en aquellas. La sección cuadrada de los baquetones laterales indica su relación con el antepecho, por lo que su pertenencia a las piezas de la arcada superior queda indiscutiblemente acreditada. / BIBLIOGRAFÍA: / CIRUJANO GUTIÉRREZ, Concepción. Restauración y estudio geométrico y compositivo del claustro gótico del monasterio de los Jerónimos de Madrid. Bienes culturales: revista del Instituto del Patrimonio Histórico Español. Madrid (m): Ministerio de Educación Cultura y Deporte: Subdirección General de Documentación y Publicaciones, 2006. págs. 35-52.</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>02/11/2016</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
+      <c r="BB14" t="inlineStr">
         <is>
           <t>González Alonso, Alberto</t>
         </is>
@@ -1666,92 +1677,92 @@
           <t>http://ceres.mcu.es/pages/Main?idt=134254&amp;inventary=DE2016/1/26&amp;table=FMUS&amp;museum=MOM</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>Museo de San Isidro. Los orígenes de Madrid</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>DE2016/1/26</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Cantería</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>Baranda</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>Claustro gótico del Monasterio de Los Jerónimos de Madrid</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>Dolomía [Dolomía cristalina]</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>Cincelado</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>Altura = 38 cm; Anchura = 21 cm; Espesor = 11 cm</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>Fragmento de celosía del antepecho del piso superior del claustro. Corresponde a la parte central del lateral de un módulo con dibujo calado de flor de cuatro pétalos.</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>1462-1464 / 1503-1505</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Gótico</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>Madrid (m) (Area Metropolitana de Madrid (comarca), Madrid &lt;(provincia)&gt;)</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>Arquitectónico</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado, Retiro (distrito)(Madrid (m), Area Metropolitana de Madrid (comarca)) / Excavación arqueológica,</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>El estudio de los fragmentos de celosía calada confirmó la existencia de paneles con diferentes geometrías con una altura de 73,8 cm. En el caso que nos ocupa, cada módulo calado configura una forma de flor de cuatro pétalos con los extremos apuntados cuya repetición encaja con las dimensiones de la luz obtenida para el arco de perfil B, por lo que su posición en el piso superior del claustro queda atestiguada. / BIBLIOGRAFÍA: / CIRUJANO GUTIÉRREZ, Concepción. Restauración y estudio geométrico y compositivo del claustro gótico del monasterio de los Jerónimos de Madrid. Bienes culturales: revista del Instituto del Patrimonio Histórico Español. Madrid (m): Ministerio de Educación Cultura y Deporte: Subdirección General de Documentación y Publicaciones, 2006. págs. 35-52.</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>02/11/2016</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
         <is>
           <t>González Alonso, Alberto</t>
         </is>
@@ -1773,92 +1784,92 @@
           <t>http://ceres.mcu.es/pages/Main?idt=134256&amp;inventary=DE2016/1/31&amp;table=FMUS&amp;museum=MOM</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>Museo de San Isidro. Los orígenes de Madrid</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>DE2016/1/31</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Cantería</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>Baranda</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>Claustro gótico del Monasterio de Los Jerónimos de Madrid</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>Dolomía [Desdolomía]</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>Cincelado</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>Altura = 22 cm; Anchura = 18 cm; Espesor = 11 cm</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>Fragmento de celosía del antepecho del piso superior del claustro. Corresponde a la parte central del lateral de un módulo con dibujo calado de flor de cuatro pétalos.</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>1462-1464 / 1503-1505</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>Gótico</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>Madrid (m) (Area Metropolitana de Madrid (comarca), Madrid &lt;(provincia)&gt;)</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>Arquitectónico</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado, Retiro (distrito)(Madrid (m), Area Metropolitana de Madrid (comarca)) / Excavación arqueológica,</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>Museo Nacional del Prado</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
+      <c r="AZ16" t="inlineStr">
         <is>
           <t>El estudio de los fragmentos de celosía calada confirmó la existencia de paneles con diferentes geometrías con una altura de 73,8 cm. En el caso que nos ocupa, cada módulo calado configura una forma de flor de cuatro pétalos con los extremos apuntados cuya repetición encaja con las dimensiones de la luz obtenida para el arco de perfil B, por lo que su posición en el piso superior del claustro queda atestiguada. / BIBLIOGRAFÍA: / CIRUJANO GUTIÉRREZ, Concepción. Restauración y estudio geométrico y compositivo del claustro gótico del monasterio de los Jerónimos de Madrid. Bienes culturales: revista del Instituto del Patrimonio Histórico Español. Madrid (m): Ministerio de Educación Cultura y Deporte: Subdirección General de Documentación y Publicaciones, 2006. págs. 35-52.</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>02/11/2016</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr">
+      <c r="BB16" t="inlineStr">
         <is>
           <t>González Alonso, Alberto</t>
         </is>
@@ -1875,57 +1886,57 @@
           <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433461</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>PROVISIONES DE CHANCILLERÍA</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>AVM SEC - 2 - 158 - 20</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
+      <c r="BC17" t="inlineStr">
         <is>
           <t>Provisión de la Chancillería de Juan II disponiendo que el Concejo de Madrid dirigiese en lo sucesivo sus peticiones a los consejeros residentes en la Villa de Illescas, designados por los tutores del Rey, y acudiesen a sus emplazamientos.</t>
         </is>
       </c>
-      <c r="BC17" t="inlineStr">
+      <c r="BD17" t="inlineStr">
         <is>
           <t>20-12-1413</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
+      <c r="BE17" t="inlineStr">
         <is>
           <t>20-12-1413</t>
         </is>
       </c>
-      <c r="BE17" t="inlineStr">
+      <c r="BF17" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
+      <c r="BG17" t="inlineStr">
         <is>
           <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda Serie. Madrid; Ayuntamiento, 1932. 2 vol. I, p.17-20.</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>Original / 225x315 milímetros / Letra gótica / Sello de placa al dorso</t>
-        </is>
-      </c>
       <c r="BH17" t="inlineStr">
         <is>
+          <t>Original 225x315 milímetros Letra gótica Sello de placa al dorso</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
           <t>Juan II (1405-1454, rey de Castilla)</t>
         </is>
       </c>
-      <c r="BI17" t="inlineStr">
+      <c r="BJ17" t="inlineStr">
         <is>
           <t>Illescas (Toledo, España)</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr">
+      <c r="BK17" t="inlineStr">
         <is>
           <t>Hermandad de ciudades y villas, Concejo de === Chancilleria === Consejeros === Tutores del Rey === Audiencia de Valladolid</t>
         </is>
@@ -1947,52 +1958,52 @@
           <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433505</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>PROVISIONES === REGIDORES === ALGUACILES</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>AVM SEC - 2 - 158 - 21</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
+      <c r="BC18" t="inlineStr">
         <is>
           <t>Provisión del Consejo ordenando que dos Alcaldes, el alguacil y dos regidores de la Villa de Madrid se presenten en Illescas para tratar varios asuntos con los miembros de dicho organismo.</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr">
+      <c r="BD18" t="inlineStr">
         <is>
           <t>16-02-1414</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BE18" t="inlineStr">
         <is>
           <t>16-02-1414</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BF18" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda Serie. Madrid; Ayuntamiento, 1932. 2 vol. II, p. 39-40</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>Original / Letra gótica. / 185 x 335 milímetros / Huella de sello de placa</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>Original Letra gótica. 185 x 335 milímetros Huella de sello de placa</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
         <is>
           <t>Illescas (Toledo, España)</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
+      <c r="BK18" t="inlineStr">
         <is>
           <t>Alcalde</t>
         </is>
@@ -2014,52 +2025,52 @@
           <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433521</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>PROVISIONES === PANES</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>AVM SEC - 2 - 91 - 15</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
+      <c r="BC19" t="inlineStr">
         <is>
           <t>Provisión del Consejo por la que se ordena a Madrid provea a don Gonzalo Rodríguez de Neira de sesenta fanegas de pan.</t>
         </is>
       </c>
-      <c r="BC19" t="inlineStr">
+      <c r="BD19" t="inlineStr">
         <is>
           <t>24-02-1414</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
+      <c r="BE19" t="inlineStr">
         <is>
           <t>24-02-1414</t>
         </is>
       </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda serie. Madrid; Ayuntamiento, 1932. 2 vol. II, p. 41-43 ; En: Revista de la Biblioteca Archivo y Museo de Madrid. IX y X (1981), p. 206-208</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>Original / letra gótica. / 200 x 340 milímetros / Sello de placa al dorso.</t>
-        </is>
-      </c>
       <c r="BH19" t="inlineStr">
         <is>
+          <t>Original letra gótica. 200 x 340 milímetros Sello de placa al dorso.</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
           <t>Rodriguez de Neira, Gonzalo (ca. 1414)</t>
         </is>
       </c>
-      <c r="BI19" t="inlineStr">
+      <c r="BJ19" t="inlineStr">
         <is>
           <t>Illescas (Toledo, España) === Madrid (España)</t>
         </is>
@@ -2096,27 +2107,27 @@
           <t>[Madrid] : Fundación Colección ABC, D.L.2012.</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Gente Menuda(Madrid. 1906)-Historia-Exposiciones. / Publicaciones periódicas infantiles y juveniles-España-Historia / Publicaciones periódicas infantiles y juveniles-Exposiciones</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>En port.: Museo ABC, centro de arte/dibujo/ilustración.</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>M 38117-2012</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>978-84-940000-6-5</t>
         </is>
       </c>
-      <c r="BK20" t="inlineStr">
+      <c r="BL20" t="inlineStr">
         <is>
           <t>Fundación Colección ABC / Museo ABC</t>
         </is>
@@ -2158,37 +2169,37 @@
           <t>Lugduni : Sumptibus Philippi Borde &amp; Laurentii Arnaud, 1662.</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Derecho civil</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>Documento digitalizado. R 199</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>In hac postrema Lugdunensi Editione Pandectae purissimae sunt, textus cum optimis Codicibus collatus... allegationes in notis adductae... diligenti studio &amp; cura N. Antonii...</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>CCPB, 000050116-6</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe / Arnaud Laurent</t>
         </is>
       </c>
-      <c r="BL21" t="inlineStr">
+      <c r="BM21" t="inlineStr">
         <is>
           <t>Sign.: ã8, [calderón]8, 2[calderón]8, 3[calderón]8, [cruz]8, 2[cruz]8s, 3[cruz]8, 4[cruz]8, 5[cruz]4, A-Z8, Aa-Zz8, Aaa-Qqq8, Rrr4, Sss2Texto a dos col. con apostillas marginalesAnteport.Port. a dos tintas y con esc. xil.Reclamos</t>
         </is>
       </c>
-      <c r="BM21" t="inlineStr">
+      <c r="BN21" t="inlineStr">
         <is>
           <t>Iniciales decoradasFrisos y viñetas xil. a comienzo y fin de texto</t>
         </is>
@@ -2235,27 +2246,27 @@
           <t>Buenos Aires : Ricordi Americana, cop. 1921 (1989)</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Piano-Estudios / Piano-Ejercicios prácticos</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Ed. rev. por Sigismondo Cesi y Ernesto Marciano</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>Cesi, Sigismondo (1869-1936) / Marciano, Ernesto</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>M-BMM BMDE Depósito ML 530 (13) 0100774652 56.248</t>
         </is>
       </c>
-      <c r="BN22" t="inlineStr">
+      <c r="BO22" t="inlineStr">
         <is>
           <t>Texto en español, italiano, francés e inglés</t>
         </is>
@@ -2302,22 +2313,22 @@
           <t>Buenos Aires : Ricordi Americana, imp. 1997</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Piano (4 manos)</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Nueva ed. rev. por Ernesto Marciano</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>Marciano, Ernesto</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>M-BMM BMDE Depósito ML 543 (16) 0101027704 59.363 / M-BMM BMDE Depósito ML 544 (15) 0101027169 59.382 / M-BMM BMDE Depósito ML 545 (16) 0101027735 59.399</t>
         </is>
@@ -2359,17 +2370,17 @@
           <t>Kassel : Furore, cop. 1990</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Cuartetos de cuerda-Partes</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>Marciano, Rosario (1944-1998)</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>M-BMM BMDE Depósito MP 2401 (23) 0101481546 65.079</t>
         </is>

--- a/tests/network_ref.xlsx
+++ b/tests/network_ref.xlsx
@@ -81,7 +81,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -90,6 +90,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -471,417 +474,411 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BO37"/>
+  <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="16.14" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.05" customWidth="1" style="3" min="2" max="2"/>
-    <col width="31.68" customWidth="1" style="4" min="3" max="3"/>
-    <col width="42" customWidth="1" style="3" min="4" max="4"/>
-    <col width="42" customWidth="1" style="5" min="5" max="5"/>
-    <col width="42" customWidth="1" style="5" min="6" max="6"/>
-    <col width="42" customWidth="1" style="5" min="7" max="7"/>
-    <col width="42" customWidth="1" style="5" min="8" max="8"/>
-    <col width="42" customWidth="1" style="5" min="9" max="9"/>
-    <col width="42" customWidth="1" style="5" min="10" max="10"/>
-    <col width="42" customWidth="1" style="5" min="11" max="11"/>
-    <col width="42" customWidth="1" style="5" min="12" max="12"/>
-    <col width="42" customWidth="1" style="5" min="13" max="13"/>
-    <col width="42" customWidth="1" style="5" min="14" max="14"/>
-    <col width="42" customWidth="1" style="5" min="15" max="15"/>
-    <col width="42" customWidth="1" style="5" min="16" max="16"/>
-    <col width="42" customWidth="1" style="5" min="17" max="17"/>
-    <col width="42" customWidth="1" style="5" min="18" max="18"/>
-    <col width="42" customWidth="1" style="5" min="19" max="19"/>
-    <col width="42" customWidth="1" style="5" min="20" max="20"/>
-    <col width="42" customWidth="1" style="5" min="21" max="21"/>
-    <col width="42" customWidth="1" style="5" min="22" max="22"/>
-    <col width="42" customWidth="1" style="5" min="23" max="23"/>
-    <col width="42" customWidth="1" style="5" min="24" max="24"/>
-    <col width="42" customWidth="1" style="5" min="25" max="25"/>
-    <col width="42" customWidth="1" style="5" min="26" max="26"/>
-    <col width="42" customWidth="1" style="5" min="27" max="27"/>
-    <col width="42" customWidth="1" style="5" min="28" max="28"/>
-    <col width="42" customWidth="1" style="5" min="29" max="29"/>
-    <col width="42" customWidth="1" style="5" min="30" max="30"/>
-    <col width="42" customWidth="1" style="5" min="31" max="31"/>
-    <col width="42" customWidth="1" style="5" min="32" max="32"/>
-    <col width="42" customWidth="1" style="5" min="33" max="33"/>
-    <col width="42" customWidth="1" style="5" min="34" max="34"/>
-    <col width="42" customWidth="1" style="5" min="35" max="35"/>
-    <col width="42" customWidth="1" style="5" min="36" max="36"/>
-    <col width="42" customWidth="1" style="5" min="37" max="37"/>
-    <col width="42" customWidth="1" style="5" min="38" max="38"/>
-    <col width="42" customWidth="1" style="5" min="39" max="39"/>
-    <col width="42" customWidth="1" style="5" min="40" max="40"/>
-    <col width="42" customWidth="1" style="5" min="41" max="41"/>
-    <col width="42" customWidth="1" style="5" min="42" max="42"/>
-    <col width="42" customWidth="1" style="5" min="43" max="43"/>
-    <col width="42" customWidth="1" style="5" min="44" max="44"/>
-    <col width="42" customWidth="1" style="5" min="45" max="45"/>
-    <col width="42" customWidth="1" style="5" min="46" max="46"/>
-    <col width="42" customWidth="1" style="5" min="47" max="47"/>
-    <col width="42" customWidth="1" style="5" min="48" max="48"/>
-    <col width="42" customWidth="1" style="5" min="49" max="49"/>
-    <col width="42" customWidth="1" style="5" min="50" max="50"/>
-    <col width="42" customWidth="1" style="5" min="51" max="51"/>
-    <col width="42" customWidth="1" style="5" min="52" max="52"/>
-    <col width="42" customWidth="1" style="5" min="53" max="53"/>
-    <col width="42" customWidth="1" style="5" min="54" max="54"/>
-    <col width="42" customWidth="1" style="5" min="55" max="55"/>
-    <col width="42" customWidth="1" style="5" min="56" max="56"/>
-    <col width="42" customWidth="1" style="5" min="57" max="57"/>
-    <col width="42" customWidth="1" style="5" min="58" max="58"/>
-    <col width="42" customWidth="1" style="5" min="59" max="59"/>
-    <col width="42" customWidth="1" style="5" min="60" max="60"/>
-    <col width="42" customWidth="1" style="5" min="61" max="61"/>
-    <col width="42" customWidth="1" style="5" min="62" max="62"/>
-    <col width="42" customWidth="1" style="5" min="63" max="63"/>
-    <col width="42" customWidth="1" style="5" min="64" max="64"/>
-    <col width="42" customWidth="1" style="5" min="65" max="65"/>
-    <col width="42" customWidth="1" style="5" min="66" max="66"/>
-    <col width="42" customWidth="1" style="5" min="67" max="67"/>
+    <col width="16.14" customWidth="1" style="4" min="1" max="1"/>
+    <col width="15.05" customWidth="1" style="4" min="2" max="2"/>
+    <col width="31.68" customWidth="1" style="5" min="3" max="3"/>
+    <col width="42" customWidth="1" style="4" min="4" max="4"/>
+    <col width="42" customWidth="1" style="6" min="5" max="5"/>
+    <col width="42" customWidth="1" style="6" min="6" max="6"/>
+    <col width="42" customWidth="1" style="6" min="7" max="7"/>
+    <col width="42" customWidth="1" style="6" min="8" max="8"/>
+    <col width="42" customWidth="1" style="6" min="9" max="9"/>
+    <col width="42" customWidth="1" style="6" min="10" max="10"/>
+    <col width="42" customWidth="1" style="6" min="11" max="11"/>
+    <col width="42" customWidth="1" style="6" min="12" max="12"/>
+    <col width="42" customWidth="1" style="6" min="13" max="13"/>
+    <col width="42" customWidth="1" style="6" min="14" max="14"/>
+    <col width="42" customWidth="1" style="6" min="15" max="15"/>
+    <col width="42" customWidth="1" style="6" min="16" max="16"/>
+    <col width="42" customWidth="1" style="6" min="17" max="17"/>
+    <col width="42" customWidth="1" style="6" min="18" max="18"/>
+    <col width="42" customWidth="1" style="6" min="19" max="19"/>
+    <col width="42" customWidth="1" style="6" min="20" max="20"/>
+    <col width="42" customWidth="1" style="6" min="21" max="21"/>
+    <col width="42" customWidth="1" style="6" min="22" max="22"/>
+    <col width="42" customWidth="1" style="6" min="23" max="23"/>
+    <col width="42" customWidth="1" style="6" min="24" max="24"/>
+    <col width="42" customWidth="1" style="6" min="25" max="25"/>
+    <col width="42" customWidth="1" style="6" min="26" max="26"/>
+    <col width="42" customWidth="1" style="6" min="27" max="27"/>
+    <col width="42" customWidth="1" style="6" min="28" max="28"/>
+    <col width="42" customWidth="1" style="6" min="29" max="29"/>
+    <col width="42" customWidth="1" style="6" min="30" max="30"/>
+    <col width="42" customWidth="1" style="6" min="31" max="31"/>
+    <col width="42" customWidth="1" style="6" min="32" max="32"/>
+    <col width="42" customWidth="1" style="6" min="33" max="33"/>
+    <col width="42" customWidth="1" style="6" min="34" max="34"/>
+    <col width="42" customWidth="1" style="6" min="35" max="35"/>
+    <col width="42" customWidth="1" style="6" min="36" max="36"/>
+    <col width="42" customWidth="1" style="6" min="37" max="37"/>
+    <col width="42" customWidth="1" style="6" min="38" max="38"/>
+    <col width="42" customWidth="1" style="6" min="39" max="39"/>
+    <col width="42" customWidth="1" style="6" min="40" max="40"/>
+    <col width="42" customWidth="1" style="6" min="41" max="41"/>
+    <col width="42" customWidth="1" style="6" min="42" max="42"/>
+    <col width="42" customWidth="1" style="6" min="43" max="43"/>
+    <col width="42" customWidth="1" style="6" min="44" max="44"/>
+    <col width="42" customWidth="1" style="6" min="45" max="45"/>
+    <col width="42" customWidth="1" style="6" min="46" max="46"/>
+    <col width="42" customWidth="1" style="6" min="47" max="47"/>
+    <col width="42" customWidth="1" style="6" min="48" max="48"/>
+    <col width="42" customWidth="1" style="6" min="49" max="49"/>
+    <col width="42" customWidth="1" style="6" min="50" max="50"/>
+    <col width="42" customWidth="1" style="6" min="51" max="51"/>
+    <col width="42" customWidth="1" style="6" min="52" max="52"/>
+    <col width="42" customWidth="1" style="6" min="53" max="53"/>
+    <col width="42" customWidth="1" style="6" min="54" max="54"/>
+    <col width="42" customWidth="1" style="6" min="55" max="55"/>
+    <col width="42" customWidth="1" style="6" min="56" max="56"/>
+    <col width="42" customWidth="1" style="6" min="57" max="57"/>
+    <col width="42" customWidth="1" style="6" min="58" max="58"/>
+    <col width="42" customWidth="1" style="6" min="59" max="59"/>
+    <col width="42" customWidth="1" style="6" min="60" max="60"/>
+    <col width="42" customWidth="1" style="6" min="61" max="61"/>
+    <col width="42" customWidth="1" style="6" min="62" max="62"/>
+    <col width="42" customWidth="1" style="6" min="63" max="63"/>
+    <col width="42" customWidth="1" style="6" min="64" max="64"/>
+    <col width="42" customWidth="1" style="6" min="65" max="65"/>
+    <col width="42" customWidth="1" style="6" min="66" max="66"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="D1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>[sm] Título</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>[sm] Autor</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>[sm] Editor</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha de pub.</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>[sm] Descripción física</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>[sm] Información de ejemplar</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>[sm] Título uniforme</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>[sm] Frecuencia actual</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar/Ed./Año</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>[sm] Numeración</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>[sm] Índices</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. al tit. y men. res.</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>[sm] ISSN</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>[sm] Materias</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>[sm] Es suplemento</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="S1" s="7" t="inlineStr">
         <is>
           <t>[sm] Otra edición</t>
         </is>
       </c>
-      <c r="T1" s="6" t="inlineStr">
+      <c r="T1" s="7" t="inlineStr">
         <is>
           <t>[sm] Absorbió a</t>
         </is>
       </c>
-      <c r="U1" s="6" t="inlineStr">
+      <c r="U1" s="7" t="inlineStr">
         <is>
           <t>[sm] Colecciones</t>
         </is>
       </c>
-      <c r="V1" s="6" t="inlineStr">
+      <c r="V1" s="7" t="inlineStr">
         <is>
           <t>[sm] Existencias</t>
         </is>
       </c>
-      <c r="W1" s="6" t="inlineStr">
+      <c r="W1" s="7" t="inlineStr">
         <is>
           <t>[sm] Suplementos</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="X1" s="7" t="inlineStr">
         <is>
           <t>[sm] Enlaces</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>[sm] Frecuencia anterior</t>
         </is>
       </c>
-      <c r="Z1" s="6" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>[sm] Notas</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="inlineStr">
+      <c r="AA1" s="7" t="inlineStr">
         <is>
           <t>[sm] Publicación principal</t>
         </is>
       </c>
-      <c r="AB1" s="6" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>[sm] Bibliografía</t>
         </is>
       </c>
-      <c r="AC1" s="6" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>[sm] Depósito Legal</t>
         </is>
       </c>
-      <c r="AD1" s="6" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>[sm] ISBN</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="inlineStr">
+      <c r="AE1" s="7" t="inlineStr">
         <is>
           <t>[sm] Edición</t>
         </is>
       </c>
-      <c r="AF1" s="6" t="inlineStr">
+      <c r="AF1" s="7" t="inlineStr">
         <is>
           <t>[sm] Referencias</t>
         </is>
       </c>
-      <c r="AG1" s="6" t="inlineStr">
+      <c r="AG1" s="7" t="inlineStr">
         <is>
           <t>[sm] Autores</t>
         </is>
       </c>
-      <c r="AH1" s="6" t="inlineStr">
+      <c r="AH1" s="7" t="inlineStr">
         <is>
           <t>[sm] Contiene</t>
         </is>
       </c>
-      <c r="AI1" s="6" t="inlineStr">
+      <c r="AI1" s="7" t="inlineStr">
         <is>
           <t>[sm] Intérpretes</t>
         </is>
       </c>
-      <c r="AJ1" s="6" t="inlineStr">
+      <c r="AJ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Signatura</t>
         </is>
       </c>
-      <c r="AK1" s="6" t="inlineStr">
+      <c r="AK1" s="7" t="inlineStr">
         <is>
           <t>[sm] Museo</t>
         </is>
       </c>
-      <c r="AL1" s="6" t="inlineStr">
+      <c r="AL1" s="7" t="inlineStr">
         <is>
           <t>[sm] Inventario</t>
         </is>
       </c>
-      <c r="AM1" s="6" t="inlineStr">
+      <c r="AM1" s="7" t="inlineStr">
         <is>
           <t>[sm] Clasificación Genérica</t>
         </is>
       </c>
-      <c r="AN1" s="6" t="inlineStr">
+      <c r="AN1" s="7" t="inlineStr">
         <is>
           <t>[sm] Objeto/Documento</t>
         </is>
       </c>
-      <c r="AO1" s="6" t="inlineStr">
+      <c r="AO1" s="7" t="inlineStr">
         <is>
           <t>[sm] Conjunto</t>
         </is>
       </c>
-      <c r="AP1" s="6" t="inlineStr">
+      <c r="AP1" s="7" t="inlineStr">
         <is>
           <t>[sm] Materia/Soporte</t>
         </is>
       </c>
-      <c r="AQ1" s="6" t="inlineStr">
+      <c r="AQ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Técnica</t>
         </is>
       </c>
-      <c r="AR1" s="6" t="inlineStr">
+      <c r="AR1" s="7" t="inlineStr">
         <is>
           <t>[sm] Dimensiones</t>
         </is>
       </c>
-      <c r="AS1" s="6" t="inlineStr">
+      <c r="AS1" s="7" t="inlineStr">
         <is>
           <t>[sm] Descripción</t>
         </is>
       </c>
-      <c r="AT1" s="6" t="inlineStr">
+      <c r="AT1" s="7" t="inlineStr">
         <is>
           <t>[sm] Datación</t>
         </is>
       </c>
-      <c r="AU1" s="6" t="inlineStr">
+      <c r="AU1" s="7" t="inlineStr">
         <is>
           <t>[sm] Contexto Cultural/Estilo</t>
         </is>
       </c>
-      <c r="AV1" s="6" t="inlineStr">
+      <c r="AV1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar de Producción/Ceca</t>
         </is>
       </c>
-      <c r="AW1" s="6" t="inlineStr">
+      <c r="AW1" s="7" t="inlineStr">
         <is>
           <t>[sm] Uso/función</t>
         </is>
       </c>
-      <c r="AX1" s="6" t="inlineStr">
+      <c r="AX1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar de Procedencia</t>
         </is>
       </c>
-      <c r="AY1" s="6" t="inlineStr">
+      <c r="AY1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar Específico/Yacimiento</t>
         </is>
       </c>
-      <c r="AZ1" s="6" t="inlineStr">
+      <c r="AZ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Clasificación Razonada</t>
         </is>
       </c>
-      <c r="BA1" s="6" t="inlineStr">
+      <c r="BA1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha de Ingreso</t>
         </is>
       </c>
-      <c r="BB1" s="6" t="inlineStr">
+      <c r="BB1" s="7" t="inlineStr">
         <is>
           <t>[sm] Catalogación</t>
         </is>
       </c>
-      <c r="BC1" s="6" t="inlineStr">
+      <c r="BC1" s="7" t="inlineStr">
         <is>
           <t>[sm] [vacío]</t>
         </is>
       </c>
-      <c r="BD1" s="6" t="inlineStr">
+      <c r="BD1" s="7" t="inlineStr">
+        <is>
+          <t>[sm] Fecha documento</t>
+        </is>
+      </c>
+      <c r="BE1" s="7" t="inlineStr">
+        <is>
+          <t>[sm] Notas de alcance y contenido</t>
+        </is>
+      </c>
+      <c r="BF1" s="7" t="inlineStr">
+        <is>
+          <t>[sm] Condiciones de acceso al documento</t>
+        </is>
+      </c>
+      <c r="BG1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha inicial</t>
         </is>
       </c>
-      <c r="BE1" s="6" t="inlineStr">
-        <is>
-          <t>[sm] Fecha final</t>
-        </is>
-      </c>
-      <c r="BF1" s="6" t="inlineStr">
-        <is>
-          <t>[sm] Condiciones de acceso</t>
-        </is>
-      </c>
-      <c r="BG1" s="6" t="inlineStr">
-        <is>
-          <t>[sm] Bibliografia</t>
-        </is>
-      </c>
-      <c r="BH1" s="6" t="inlineStr">
-        <is>
-          <t>[sm] Notas de descripción</t>
-        </is>
-      </c>
-      <c r="BI1" s="6" t="inlineStr">
+      <c r="BH1" s="7" t="inlineStr">
+        <is>
+          <t>[sm] Descriptores de instituciones</t>
+        </is>
+      </c>
+      <c r="BI1" s="7" t="inlineStr">
         <is>
           <t>[sm] Personas</t>
         </is>
       </c>
-      <c r="BJ1" s="6" t="inlineStr">
+      <c r="BJ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugares</t>
         </is>
       </c>
-      <c r="BK1" s="6" t="inlineStr">
-        <is>
-          <t>[sm] Instituciones</t>
-        </is>
-      </c>
-      <c r="BL1" s="6" t="inlineStr">
+      <c r="BK1" s="7" t="inlineStr">
         <is>
           <t>[sm] Entidades</t>
         </is>
       </c>
-      <c r="BM1" s="6" t="inlineStr">
+      <c r="BL1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. área desc. fis.</t>
         </is>
       </c>
-      <c r="BN1" s="6" t="inlineStr">
+      <c r="BM1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. sobre ilustrac.</t>
         </is>
       </c>
-      <c r="BO1" s="6" t="inlineStr">
+      <c r="BN1" s="7" t="inlineStr">
         <is>
           <t>[sm] Otras notas</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>invasion</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>http://catalogo.bne.es/uhtbin/cgisirsi/x/0/0/57/5/3?searchdata1=1935433{CKEY}&amp;searchfield1=GENERAL^SUBJECT^GENERAL^^&amp;user_id=WEBSERVER</t>
         </is>
@@ -917,18 +914,18 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>captivate</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>fabricate</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>http://catalogo.bne.es/uhtbin/cgisirsi/x/0/0/57/5/3?searchdata1=4517155{CKEY}&amp;searchfield1=GENERAL^SUBJECT^GENERAL^^&amp;user_id=WEBSERVER</t>
         </is>
@@ -964,18 +961,18 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>storage</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>affair</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>http://catalogo.bne.es/uhtbin/cgisirsi/x/0/0/57/5/3?searchdata1=5430888{CKEY}&amp;searchfield1=GENERAL^SUBJECT^GENERAL^^&amp;user_id=WEBSERVER</t>
         </is>
@@ -1011,40 +1008,40 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>separation</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>shoot</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>http://catalogo.bne.es/uhtbin/cgisirsi/x/0/0/57/5/3?searchdata1=553803{CKEY}&amp;searchfield1=GENERAL^SUBJECT^GENERAL^^&amp;user_id=WEBSERVER</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al celebre aeronauta Don Vicente Lunardi [Texto impreso] : cancion</t>
+          <t>Al celebre aeronauta Don Vicente Lunardi : cancion</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s.n.</t>
+          <t>[s.n.]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s.a.]</t>
+          <t>[1792 o posterior]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VIII p.; 21 cm</t>
+          <t>VIII p.; 4º</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1053,18 +1050,18 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>trade</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>financial</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=19245</t>
         </is>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Gente Menuda; Los Domingos de A B C; Blanco y Negro; ABC cultural; Blanco y Negro mujer; Suplemento Semanal continuado por: XL Semanal / A B C: doble diario de la Guerra Civil / Mujer Hoy / Mujer Hoy Moda / Alfa y omega / XL semanal ABC (Madrid. 2005) / ABC Cultural / Corazón tve / Plan B / La Segunda Guerra Mundial (Madrid. 1989) / La Mujer y la casa (Madrid. 1906) / ABC: informática / (Madrid. 1996) ISSN 1136-5684</t>
+          <t>Gente Menuda; Los Domingos de A B C; Blanco y Negro; ABC cultural; Blanco y Negro mujer; Suplemento Semanal continuado por: XL Semanal / A B C: doble diario de la Guerra Civil / Mujer Hoy / Mujer Hoy Moda / Alfa y omega / Los Domingos de ABC (Madrid. 1968) / . ISSN 1136-0216 / XL semanal ABC (Madrid. 2005) / ABC Cultural / Corazón tve / Plan B / La Segunda Guerra Mundial (Madrid. 1989) / La Mujer y la casa (Madrid. 1906) / ABC: informática / (Madrid. 1996) ISSN 1136-5684</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1136,27 +1133,27 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1903-2021</t>
+          <t>1903-2021,(2022)</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Hemeroteca Municipal de Madrid / 1903(n.1en)-2021(n.38718,31dic)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="3" t="inlineStr">
+          <t>Hemeroteca Municipal de Madrid / 1903(n.1en)-2022(n.38899,30jun)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>mill</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=339474</t>
         </is>
@@ -1212,13 +1209,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>document</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=52686</t>
         </is>
@@ -1294,8 +1291,8 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="5">
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=553774</t>
         </is>
@@ -1346,13 +1343,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="5">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>hate</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=571997</t>
         </is>
@@ -1388,13 +1385,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>pursuit</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=579528</t>
         </is>
@@ -1435,13 +1432,13 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>receipt</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=334532</t>
         </is>
@@ -1492,13 +1489,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="5">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>definite</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=85931</t>
         </is>
@@ -1549,18 +1546,18 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="5">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>haunt</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>manner</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>http://ceres.mcu.es/pages/Main?idt=134248&amp;inventary=DE2016/1/24&amp;table=FMUS&amp;museum=MOM</t>
         </is>
@@ -1661,18 +1658,18 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="5">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>launch</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>cause</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>http://ceres.mcu.es/pages/Main?idt=134254&amp;inventary=DE2016/1/26&amp;table=FMUS&amp;museum=MOM</t>
         </is>
@@ -1768,18 +1765,18 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="5">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>commission</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>appeal</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>http://ceres.mcu.es/pages/Main?idt=134256&amp;inventary=DE2016/1/31&amp;table=FMUS&amp;museum=MOM</t>
         </is>
@@ -1875,25 +1872,25 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="5">
-      <c r="B17" s="3" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>aspect</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433461</t>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471497</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>PROVISIONES DE CHANCILLERÍA</t>
+          <t>Ver descripción para PROVISIONES DE CHANCILLERÍA</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>AVM SEC - 2 - 158 - 20</t>
+          <t>AVM SEC - 2 - 158 - 20 === Ver descripción para AVM SEC - 2 - 158 - 20</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
@@ -1903,191 +1900,176 @@
       </c>
       <c r="BD17" t="inlineStr">
         <is>
+          <t>11-12-1413</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>Sin desarrollar</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
           <t>20-12-1413</t>
         </is>
       </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>20-12-1413</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>Ver descripción para Hermandad de ciudades y villas, Concejo de === Ver descripción para Chancilleria === Ver descripción para Consejeros === Ver descripción para Tutores del Rey === Ver descripción para Audiencia de Valladolid</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>Ver descripción para Juan II (1405-1454, rey de Castilla)</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>Ver descripción para Illescas (Toledo, España)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>blow</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>security</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471664</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Ver descripción para PROVISIONES === Ver descripción para REGIDORES === Ver descripción para ALGUACILES</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>AVM SEC - 2 - 158 - 21 === Ver descripción para AVM SEC - 2 - 158 - 21</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Provisión del Consejo ordenando que dos Alcaldes, el alguacil y dos regidores de la Villa de Madrid se presenten en Illescas para tratar varios asuntos con los miembros de dicho organismo.</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>07-02-1414</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Sin desarrollar</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda Serie. Madrid; Ayuntamiento, 1932. 2 vol. I, p.17-20.</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>Original 225x315 milímetros Letra gótica Sello de placa al dorso</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>Juan II (1405-1454, rey de Castilla)</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>Illescas (Toledo, España)</t>
-        </is>
-      </c>
-      <c r="BK17" t="inlineStr">
-        <is>
-          <t>Hermandad de ciudades y villas, Concejo de === Chancilleria === Consejeros === Tutores del Rey === Audiencia de Valladolid</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="5">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>blow</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>security</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433505</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PROVISIONES === REGIDORES === ALGUACILES</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>AVM SEC - 2 - 158 - 21</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>Provisión del Consejo ordenando que dos Alcaldes, el alguacil y dos regidores de la Villa de Madrid se presenten en Illescas para tratar varios asuntos con los miembros de dicho organismo.</t>
-        </is>
-      </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>16-02-1414</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>16-02-1414</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>Ver descripción para Alcalde</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>Ver descripción para Illescas (Toledo, España)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>feather</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>raid</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471665</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Ver descripción para PROVISIONES === Ver descripción para PANES</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>AVM SEC - 2 - 91 - 15 === Ver descripción para AVM SEC - 2 - 91 - 15</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>Provisión del Consejo por la que se ordena a Madrid provea a don Gonzalo Rodríguez de Neira de sesenta fanegas de pan.</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>15-02-1414</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Sin desarrollar</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda Serie. Madrid; Ayuntamiento, 1932. 2 vol. II, p. 39-40</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>Original Letra gótica. 185 x 335 milímetros Huella de sello de placa</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>Illescas (Toledo, España)</t>
-        </is>
-      </c>
-      <c r="BK18" t="inlineStr">
-        <is>
-          <t>Alcalde</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="5">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>feather</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>raid</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>https://catalogoarchivo.madrid.es/ms-opac/doc?q=recordIdentifier:1@433521</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>PROVISIONES === PANES</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>AVM SEC - 2 - 91 - 15</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>Provisión del Consejo por la que se ordena a Madrid provea a don Gonzalo Rodríguez de Neira de sesenta fanegas de pan.</t>
-        </is>
-      </c>
-      <c r="BD19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>24-02-1414</t>
         </is>
       </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>24-02-1414</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>Edit. Millares Carlo, A. y Varela Hervias, E. Documentos del Archivo de Villa de Madrid. Segunda serie. Madrid; Ayuntamiento, 1932. 2 vol. II, p. 41-43 ; En: Revista de la Biblioteca Archivo y Museo de Madrid. IX y X (1981), p. 206-208</t>
-        </is>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>Original letra gótica. 200 x 340 milímetros Sello de placa al dorso.</t>
-        </is>
-      </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>Rodriguez de Neira, Gonzalo (ca. 1414)</t>
+          <t>Ver descripción para Rodriguez de Neira, Gonzalo (ca. 1414)</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>Illescas (Toledo, España) === Madrid (España)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="5">
-      <c r="A20" s="3" t="inlineStr">
+          <t>Ver descripción para Illescas (Toledo, España) === Ver descripción para Madrid (España)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>compact</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>https://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=421918</t>
         </is>
@@ -2127,19 +2109,19 @@
           <t>978-84-940000-6-5</t>
         </is>
       </c>
-      <c r="BL20" t="inlineStr">
+      <c r="BK20" t="inlineStr">
         <is>
           <t>Fundación Colección ABC / Museo ABC</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="5">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>boom</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>https://catalogos.madrid.es/cgi-bin/historica?TITN=358445</t>
         </is>
@@ -2194,29 +2176,29 @@
           <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe / Arnaud Laurent</t>
         </is>
       </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>Sign.: ã8, [calderón]8, 2[calderón]8, 3[calderón]8, [cruz]8, 2[cruz]8s, 3[cruz]8, 4[cruz]8, 5[cruz]4, A-Z8, Aa-Zz8, Aaa-Qqq8, Rrr4, Sss2Texto a dos col. con apostillas marginalesAnteport.Port. a dos tintas y con esc. xil.Reclamos</t>
+        </is>
+      </c>
       <c r="BM21" t="inlineStr">
         <is>
-          <t>Sign.: ã8, [calderón]8, 2[calderón]8, 3[calderón]8, [cruz]8, 2[cruz]8s, 3[cruz]8, 4[cruz]8, 5[cruz]4, A-Z8, Aa-Zz8, Aaa-Qqq8, Rrr4, Sss2Texto a dos col. con apostillas marginalesAnteport.Port. a dos tintas y con esc. xil.Reclamos</t>
-        </is>
-      </c>
-      <c r="BN21" t="inlineStr">
-        <is>
           <t>Iniciales decoradasFrisos y viñetas xil. a comienzo y fin de texto</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="5">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>moon</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=217501</t>
         </is>
@@ -2266,24 +2248,24 @@
           <t>M-BMM BMDE Depósito ML 530 (13) 0100774652 56.248</t>
         </is>
       </c>
-      <c r="BO22" t="inlineStr">
+      <c r="BN22" t="inlineStr">
         <is>
           <t>Texto en español, italiano, francés e inglés</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="5">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>crystal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>taste</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=235493</t>
         </is>
@@ -2334,18 +2316,18 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="5">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>breast</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>apathy</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=250210</t>
         </is>
@@ -2386,87 +2368,87 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="5">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>champion</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>forge</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="5">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>mail</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>speculate</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="5">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>colleague</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>shark</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="5">
-      <c r="B28" s="3" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>motorcycle</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="5">
-      <c r="B29" s="3" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="5">
-      <c r="B30" s="3" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>pleasant</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="5">
-      <c r="B31" s="3" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>salt</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="5">
-      <c r="B32" s="7" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="5">
-      <c r="B33" s="7" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="5">
-      <c r="B34" s="7" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="5">
-      <c r="B35" s="7" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="5">
-      <c r="B36" s="7" t="n"/>
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="B32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="B33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="B34" s="8" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="B35" s="8" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="B36" s="8" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="7" t="n"/>
+      <c r="B37" s="8" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/tests/network_ref.xlsx
+++ b/tests/network_ref.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=19245</t>
+          <t>http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=19245</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1903-2021,(2022)</t>
+          <t>1903-2022</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Hemeroteca Municipal de Madrid / 1903(n.1en)-2022(n.38899,30jun)</t>
+          <t>Hemeroteca Municipal de Madrid / 1903(n.1en)-2022(n.39083, 31dic)</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=339474</t>
+          <t>http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=339474</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Madrid : [s.n.], 1881-1926 ( Imp. de M. Romero)</t>
+          <t>Madrid : [s.n.], 1881-1926 (Imp. de M. Romero)</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/hemeroteca?TITN=52686</t>
+          <t>http://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=52686</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="9" ht="15" customHeight="1" s="6">
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=553774</t>
+          <t>http://catalogos.madrid.es/cgi-bin/historica?TITN=553774</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=571997</t>
+          <t>http://catalogos.madrid.es/cgi-bin/historica?TITN=571997</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/historica?TITN=579528</t>
+          <t>http://catalogos.madrid.es/cgi-bin/historica?TITN=579528</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Signatura: / MR 560(3) / Otra información: / Encuadernación holandesa. Índice manuscrito. Anotaciones y tachaduras en diversas partes del ejemplar. Ex libris en papel "De Don Ramón de Mesonero Romanos" en negro enmarcado por una orla y "Hemeroteca Municipal de Madrid” en rojo.Ejemplar facticio, contiene 11 documentos.</t>
+          <t>Signatura: / MR 560(3) / Otra información: / Encuadernación holandesa. Índice manuscrito. Anotaciones y tachaduras en diversas partes del ejemplar. Ex libris en papel "De Don Ramón de Mesonero Romanos" en negro enmarcado por una orla y "Hemeroteca Municipal de Madrid en rojo.Ejemplar facticio, contiene 11 documentos.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=334532</t>
+          <t>http://catalogos.madrid.es/cgi-bin/opacmusical?TITN=334532</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>http://catalogos.munimadrid.es/cgi-bin/opacmusical?TITN=85931</t>
+          <t>http://catalogos.madrid.es/cgi-bin/opacmusical?TITN=85931</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe / Arnaud Laurent</t>
+          <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe (fl. 1629-1669) / Arnaud, Laurent (fl. 1640-1681)</t>
         </is>
       </c>
       <c r="BL21" t="inlineStr">

--- a/tests/network_ref.xlsx
+++ b/tests/network_ref.xlsx
@@ -474,10 +474,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BN37"/>
+  <dimension ref="A1:BF34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C5:C12"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -540,14 +540,6 @@
     <col width="42" customWidth="1" style="6" min="56" max="56"/>
     <col width="42" customWidth="1" style="6" min="57" max="57"/>
     <col width="42" customWidth="1" style="6" min="58" max="58"/>
-    <col width="42" customWidth="1" style="6" min="59" max="59"/>
-    <col width="42" customWidth="1" style="6" min="60" max="60"/>
-    <col width="42" customWidth="1" style="6" min="61" max="61"/>
-    <col width="42" customWidth="1" style="6" min="62" max="62"/>
-    <col width="42" customWidth="1" style="6" min="63" max="63"/>
-    <col width="42" customWidth="1" style="6" min="64" max="64"/>
-    <col width="42" customWidth="1" style="6" min="65" max="65"/>
-    <col width="42" customWidth="1" style="6" min="66" max="66"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6">
@@ -808,60 +800,20 @@
       </c>
       <c r="BC1" s="7" t="inlineStr">
         <is>
-          <t>[sm] [vacío]</t>
+          <t>[sm] Entidades</t>
         </is>
       </c>
       <c r="BD1" s="7" t="inlineStr">
         <is>
-          <t>[sm] Fecha documento</t>
+          <t>[sm] N. área desc. fis.</t>
         </is>
       </c>
       <c r="BE1" s="7" t="inlineStr">
         <is>
-          <t>[sm] Notas de alcance y contenido</t>
+          <t>[sm] N. sobre ilustrac.</t>
         </is>
       </c>
       <c r="BF1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Condiciones de acceso al documento</t>
-        </is>
-      </c>
-      <c r="BG1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Fecha inicial</t>
-        </is>
-      </c>
-      <c r="BH1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Descriptores de instituciones</t>
-        </is>
-      </c>
-      <c r="BI1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Personas</t>
-        </is>
-      </c>
-      <c r="BJ1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Lugares</t>
-        </is>
-      </c>
-      <c r="BK1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] Entidades</t>
-        </is>
-      </c>
-      <c r="BL1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] N. área desc. fis.</t>
-        </is>
-      </c>
-      <c r="BM1" s="7" t="inlineStr">
-        <is>
-          <t>[sm] N. sobre ilustrac.</t>
-        </is>
-      </c>
-      <c r="BN1" s="7" t="inlineStr">
         <is>
           <t>[sm] Otras notas</t>
         </is>
@@ -1873,564 +1825,387 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>compact</t>
+        </is>
+      </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>aspect</t>
+          <t>room</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471497</t>
+          <t>https://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=421918</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gente Menuda :dibujos de un gran suplemento infantil: del 3 de diciembre de 2012 al 3 de marzo de 2013</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>414 p. : principalmente il. ; 24 cm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[Madrid] : Fundación Colección ABC, D.L.2012.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Ver descripción para PROVISIONES DE CHANCILLERÍA</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>AVM SEC - 2 - 158 - 20 === Ver descripción para AVM SEC - 2 - 158 - 20</t>
+          <t>Gente Menuda(Madrid. 1906)-Historia-Exposiciones. / Publicaciones periódicas infantiles y juveniles-España-Historia / Publicaciones periódicas infantiles y juveniles-Exposiciones</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>En port.: Museo ABC, centro de arte/dibujo/ilustración.</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>M 38117-2012</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>978-84-940000-6-5</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>Provisión de la Chancillería de Juan II disponiendo que el Concejo de Madrid dirigiese en lo sucesivo sus peticiones a los consejeros residentes en la Villa de Illescas, designados por los tutores del Rey, y acudiesen a sus emplazamientos.</t>
-        </is>
-      </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>11-12-1413</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>Sin desarrollar</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>20-12-1413</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>Ver descripción para Hermandad de ciudades y villas, Concejo de === Ver descripción para Chancilleria === Ver descripción para Consejeros === Ver descripción para Tutores del Rey === Ver descripción para Audiencia de Valladolid</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>Ver descripción para Juan II (1405-1454, rey de Castilla)</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>Ver descripción para Illescas (Toledo, España)</t>
+          <t>Fundación Colección ABC / Museo ABC</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>blow</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>security</t>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>boom</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471664</t>
+          <t>https://catalogos.madrid.es/cgi-bin/historica?TITN=358445</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Corpus Iuris Civilis : in IV partes distinctum : [tomo I] / eruditissimis Dionysii Gothofredi I.C. ... notis illustratum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[64], 16 p., col. 17-126, 2008 col. ; 4º (24 cm.)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Signatura: / R 199 / Otra información: / Enc. : holandesa; lomo en piel marrón; tejuelo con el título; en el lomo "I"; cortes pintados; guardas pintadas. Marcas : Ex libris de Francisco Beltrán. Anot. mss. : notas en márgenes y sobre el texto.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Digesta</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Lugduni : Sumptibus Philippi Borde &amp; Laurentii Arnaud, 1662.</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Ver descripción para PROVISIONES === Ver descripción para REGIDORES === Ver descripción para ALGUACILES</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>AVM SEC - 2 - 158 - 21 === Ver descripción para AVM SEC - 2 - 158 - 21</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>Provisión del Consejo ordenando que dos Alcaldes, el alguacil y dos regidores de la Villa de Madrid se presenten en Illescas para tratar varios asuntos con los miembros de dicho organismo.</t>
+          <t>Derecho civil</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Documento digitalizado. R 199</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>In hac postrema Lugdunensi Editione Pandectae purissimae sunt, textus cum optimis Codicibus collatus... allegationes in notis adductae... diligenti studio &amp; cura N. Antonii...</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>CCPB, 000050116-6</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe (fl. 1629-1669) / Arnaud, Laurent (fl. 1640-1681)</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>07-02-1414</t>
+          <t>Sign.: ã8, [calderón]8, 2[calderón]8, 3[calderón]8, [cruz]8, 2[cruz]8s, 3[cruz]8, 4[cruz]8, 5[cruz]4, A-Z8, Aa-Zz8, Aaa-Qqq8, Rrr4, Sss2Texto a dos col. con apostillas marginalesAnteport.Port. a dos tintas y con esc. xil.Reclamos</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>Sin desarrollar</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>16-02-1414</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>Ver descripción para Alcalde</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>Ver descripción para Illescas (Toledo, España)</t>
+          <t>Iniciales decoradasFrisos y viñetas xil. a comienzo y fin de texto</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="6">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>feather</t>
+          <t>an</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>raid</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>http://catalogoarchivo.madrid.es/ms-opac/permalink/4@oai_villa_baratz_es_villa_471665</t>
+          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=217501</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gradus ad Parnassum. Primer volumen : para piano / M. Clementi [Música impresa]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Clementi, Muzio (1752-1832)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>111 p. ; 32 cm</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Gradus ad Parnassum. I, Estudios 1-27</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Buenos Aires : Ricordi Americana, cop. 1921 (1989)</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Ver descripción para PROVISIONES === Ver descripción para PANES</t>
+          <t>Piano-Estudios / Piano-Ejercicios prácticos</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Ed. rev. por Sigismondo Cesi y Ernesto Marciano</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Cesi, Sigismondo (1869-1936) / Marciano, Ernesto</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>AVM SEC - 2 - 91 - 15 === Ver descripción para AVM SEC - 2 - 91 - 15</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>Provisión del Consejo por la que se ordena a Madrid provea a don Gonzalo Rodríguez de Neira de sesenta fanegas de pan.</t>
-        </is>
-      </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>15-02-1414</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>Sin desarrollar</t>
+          <t>M-BMM BMDE Depósito ML 530 (13) 0100774652 56.248</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>24-02-1414</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>Ver descripción para Rodriguez de Neira, Gonzalo (ca. 1414)</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>Ver descripción para Illescas (Toledo, España) === Ver descripción para Madrid (España)</t>
+          <t>Texto en español, italiano, francés e inglés</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="6">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>compact</t>
+          <t>crystal</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>https://catalogos.madrid.es/cgi-bin/hemeroteca?TITN=421918</t>
+          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=235493</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gente Menuda :dibujos de un gran suplemento infantil: del 3 de diciembre de 2012 al 3 de marzo de 2013</t>
+          <t>Trozos melódicos para piano a 4 manos : op. 149 / Diabelli [Música impresa]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Diabelli, Anton (1781-1858)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>414 p. : principalmente il. ; 24 cm</t>
+          <t>39 p. ; 22 cm</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Melodische Übungsstücke, piano, 4 manos. op. 149</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[Madrid] : Fundación Colección ABC, D.L.2012.</t>
+          <t>Buenos Aires : Ricordi Americana, imp. 1997</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Gente Menuda(Madrid. 1906)-Historia-Exposiciones. / Publicaciones periódicas infantiles y juveniles-España-Historia / Publicaciones periódicas infantiles y juveniles-Exposiciones</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>En port.: Museo ABC, centro de arte/dibujo/ilustración.</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>M 38117-2012</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>978-84-940000-6-5</t>
-        </is>
-      </c>
-      <c r="BK20" t="inlineStr">
-        <is>
-          <t>Fundación Colección ABC / Museo ABC</t>
+          <t>Piano (4 manos)</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Nueva ed. rev. por Ernesto Marciano</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Marciano, Ernesto</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>M-BMM BMDE Depósito ML 543 (16) 0101027704 59.363 / M-BMM BMDE Depósito ML 544 (15) 0101027169 59.382 / M-BMM BMDE Depósito ML 545 (16) 0101027735 59.399</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="6">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>boom</t>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>breast</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>apathy</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>https://catalogos.madrid.es/cgi-bin/historica?TITN=358445</t>
+          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=250210</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Corpus Iuris Civilis : in IV partes distinctum : [tomo I] / eruditissimis Dionysii Gothofredi I.C. ... notis illustratum</t>
+          <t>Streichquartett , h-moll / Teresa Carreño ; herausgegeben von Rosario Marciano [Música impresa]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Carreño, Teresa (1853-1917)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[64], 16 p., col. 17-126, 2008 col. ; 4º (24 cm.)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Signatura: / R 199 / Otra información: / Enc. : holandesa; lomo en piel marrón; tejuelo con el título; en el lomo "I"; cortes pintados; guardas pintadas. Marcas : Ex libris de Francisco Beltrán. Anot. mss. : notas en márgenes y sobre el texto.</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Digesta</t>
+          <t>4 partes ; 30 cm</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Lugduni : Sumptibus Philippi Borde &amp; Laurentii Arnaud, 1662.</t>
+          <t>Kassel : Furore, cop. 1990</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Derecho civil</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Documento digitalizado. R 199</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>In hac postrema Lugdunensi Editione Pandectae purissimae sunt, textus cum optimis Codicibus collatus... allegationes in notis adductae... diligenti studio &amp; cura N. Antonii...</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>CCPB, 000050116-6</t>
+          <t>Cuartetos de cuerda-Partes</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Godefroy, Denis (1549-1621) / Antonio, Nicolás (1617-1684) / Borde, Philippe (fl. 1629-1669) / Arnaud, Laurent (fl. 1640-1681)</t>
-        </is>
-      </c>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>Sign.: ã8, [calderón]8, 2[calderón]8, 3[calderón]8, [cruz]8, 2[cruz]8s, 3[cruz]8, 4[cruz]8, 5[cruz]4, A-Z8, Aa-Zz8, Aaa-Qqq8, Rrr4, Sss2Texto a dos col. con apostillas marginalesAnteport.Port. a dos tintas y con esc. xil.Reclamos</t>
-        </is>
-      </c>
-      <c r="BM21" t="inlineStr">
-        <is>
-          <t>Iniciales decoradasFrisos y viñetas xil. a comienzo y fin de texto</t>
+          <t>Marciano, Rosario (1944-1998)</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>M-BMM BMDE Depósito MP 2401 (23) 0101481546 65.079</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="6">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>champion</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>moon</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=217501</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Gradus ad Parnassum. Primer volumen : para piano / M. Clementi [Música impresa]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Clementi, Muzio (1752-1832)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>111 p. ; 32 cm</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Gradus ad Parnassum. I, Estudios 1-27</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Buenos Aires : Ricordi Americana, cop. 1921 (1989)</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Piano-Estudios / Piano-Ejercicios prácticos</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>Ed. rev. por Sigismondo Cesi y Ernesto Marciano</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>Cesi, Sigismondo (1869-1936) / Marciano, Ernesto</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>M-BMM BMDE Depósito ML 530 (13) 0100774652 56.248</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>Texto en español, italiano, francés e inglés</t>
+          <t>forge</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="6">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>crystal</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>taste</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=235493</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Trozos melódicos para piano a 4 manos : op. 149 / Diabelli [Música impresa]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Diabelli, Anton (1781-1858)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>39 p. ; 22 cm</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Melodische Übungsstücke, piano, 4 manos. op. 149</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Buenos Aires : Ricordi Americana, imp. 1997</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Piano (4 manos)</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>Nueva ed. rev. por Ernesto Marciano</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>Marciano, Ernesto</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>M-BMM BMDE Depósito ML 543 (16) 0101027704 59.363 / M-BMM BMDE Depósito ML 544 (15) 0101027169 59.382 / M-BMM BMDE Depósito ML 545 (16) 0101027735 59.399</t>
+          <t>speculate</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="6">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>breast</t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>apathy</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>https://catalogos.madrid.es/cgi-bin/opacmusical?TITN=250210</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Streichquartett , h-moll / Teresa Carreño ; herausgegeben von Rosario Marciano [Música impresa]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Carreño, Teresa (1853-1917)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>4 partes ; 30 cm</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Kassel : Furore, cop. 1990</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Cuartetos de cuerda-Partes</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>Marciano, Rosario (1944-1998)</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>M-BMM BMDE Depósito MP 2401 (23) 0101481546 65.079</t>
+          <t>shark</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="6">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>champion</t>
-        </is>
-      </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>forge</t>
+          <t>motorcycle</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="6">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>mail</t>
-        </is>
-      </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>speculate</t>
+          <t>diamond</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="6">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>colleague</t>
-        </is>
-      </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>shark</t>
+          <t>pleasant</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="6">
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>salt</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="6">
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>diamond</t>
-        </is>
-      </c>
+      <c r="B29" s="8" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="6">
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>pleasant</t>
-        </is>
-      </c>
+      <c r="B30" s="8" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="6">
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>salt</t>
-        </is>
-      </c>
+      <c r="B31" s="8" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="6">
       <c r="B32" s="8" t="n"/>
@@ -2438,18 +2213,12 @@
     <row r="33" ht="15" customHeight="1" s="6">
       <c r="B33" s="8" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1" s="6">
+    <row r="34">
       <c r="B34" s="8" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1" s="6">
-      <c r="B35" s="8" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="6">
-      <c r="B36" s="8" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="8" t="n"/>
-    </row>
+    <row r="1048574" ht="12.8" customHeight="1" s="6"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="6"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
